--- a/biology/Zoologie/Blaniulus_guttulatus/Blaniulus_guttulatus.xlsx
+++ b/biology/Zoologie/Blaniulus_guttulatus/Blaniulus_guttulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blaniulus guttulatus (la blaniule mouchetée, iule de la betterave, iule des fraises) est une espèce de mille-pattes de l'ordre des iules, de la famille des Blaniulidae, originaires d'Eurasie.
 La blaniule mouchetée est un diplopode qui vit dans le sol et se nourrit des organes souterrains (racines, bulbes, tubercules) ou proches du sol (jeunes plantules, fruits, etc.) de diverses plantes.
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Encyclopedia of Life[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Encyclopedia of Life :
 Julus guttulatus Bosc, 1792
 Blanjulus guttulatus (Bosc, 1792)
 Typhloblaniulus guttulatus (Bosc, 1792)
@@ -549,9 +563,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de Blaniulus guttulatus comprend les régions paléarctique, néarctique et australasienne[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Blaniulus guttulatus comprend les régions paléarctique, néarctique et australasienne.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Lutte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour limiter la prolifération de la blaniule mouchetée, il convient d'arroser régulièrement la terre pour que ces animaux ne soient pas obligés de s'attaquer aux plantes vivantes pour s'hydrater en période de sècheresse, et d'éliminer rapidement les résidus végétaux en voie de décomposition. En dehors de la lutte chimique, une pulvérisation des cultures avec des nématodes entomopathogènes en suspension, comme Steinernema feltiae (genre Steinernema), se montre efficace pour détruire ces voraces petits mille-pattes[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour limiter la prolifération de la blaniule mouchetée, il convient d'arroser régulièrement la terre pour que ces animaux ne soient pas obligés de s'attaquer aux plantes vivantes pour s'hydrater en période de sècheresse, et d'éliminer rapidement les résidus végétaux en voie de décomposition. En dehors de la lutte chimique, une pulvérisation des cultures avec des nématodes entomopathogènes en suspension, comme Steinernema feltiae (genre Steinernema), se montre efficace pour détruire ces voraces petits mille-pattes.
 </t>
         </is>
       </c>
